--- a/Heat tranfer simulator/PVC_output.xlsx
+++ b/Heat tranfer simulator/PVC_output.xlsx
@@ -566,58 +566,58 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>-17.1993870361087</v>
+        <v>-16.66860920257351</v>
       </c>
       <c r="C3">
-        <v>-18.00412298976559</v>
+        <v>-17.55247357876735</v>
       </c>
       <c r="D3">
-        <v>-18.01172567872177</v>
+        <v>-17.56176836114312</v>
       </c>
       <c r="E3">
-        <v>-18.01177288016638</v>
+        <v>-17.56183260573752</v>
       </c>
       <c r="F3">
-        <v>-18.01177309655257</v>
+        <v>-17.56183293363681</v>
       </c>
       <c r="G3">
-        <v>-18.01177309733339</v>
+        <v>-17.56183293495418</v>
       </c>
       <c r="H3">
-        <v>-18.01177309733569</v>
+        <v>-17.56183293495852</v>
       </c>
       <c r="I3">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="J3">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="K3">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="L3">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="M3">
-        <v>-18.01177309733569</v>
+        <v>-17.56183293495852</v>
       </c>
       <c r="N3">
-        <v>-18.01177309733339</v>
+        <v>-17.56183293495418</v>
       </c>
       <c r="O3">
-        <v>-18.01177309655257</v>
+        <v>-17.56183293363681</v>
       </c>
       <c r="P3">
-        <v>-18.01177288016638</v>
+        <v>-17.56183260573752</v>
       </c>
       <c r="Q3">
-        <v>-18.01172567872177</v>
+        <v>-17.56176836114312</v>
       </c>
       <c r="R3">
-        <v>-18.00412298976559</v>
+        <v>-17.55247357876735</v>
       </c>
       <c r="S3">
-        <v>-17.1993870361087</v>
+        <v>-16.66860920257351</v>
       </c>
       <c r="T3">
         <v>25</v>
@@ -628,58 +628,58 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>-19.10685189475098</v>
+        <v>-17.38598939368921</v>
       </c>
       <c r="C4">
-        <v>-19.94741310354054</v>
+        <v>-18.28483705727696</v>
       </c>
       <c r="D4">
-        <v>-19.95534901663675</v>
+        <v>-18.29428692967978</v>
       </c>
       <c r="E4">
-        <v>-19.955398254345</v>
+        <v>-18.29435222909563</v>
       </c>
       <c r="F4">
-        <v>-19.95539847991654</v>
+        <v>-18.29435256229106</v>
       </c>
       <c r="G4">
-        <v>-19.95539848072998</v>
+        <v>-18.29435256362935</v>
       </c>
       <c r="H4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363374</v>
       </c>
       <c r="I4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="J4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="K4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="L4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="M4">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363374</v>
       </c>
       <c r="N4">
-        <v>-19.95539848072998</v>
+        <v>-18.29435256362935</v>
       </c>
       <c r="O4">
-        <v>-19.95539847991654</v>
+        <v>-18.29435256229106</v>
       </c>
       <c r="P4">
-        <v>-19.955398254345</v>
+        <v>-18.29435222909563</v>
       </c>
       <c r="Q4">
-        <v>-19.95534901663675</v>
+        <v>-18.29428692967978</v>
       </c>
       <c r="R4">
-        <v>-19.94741310354054</v>
+        <v>-18.28483705727696</v>
       </c>
       <c r="S4">
-        <v>-19.10685189475098</v>
+        <v>-17.38598939368921</v>
       </c>
       <c r="T4">
         <v>25</v>
@@ -690,58 +690,58 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>-19.14996064925916</v>
+        <v>-17.39210396085891</v>
       </c>
       <c r="C5">
-        <v>-19.99131887942361</v>
+        <v>-18.29107733041518</v>
       </c>
       <c r="D5">
-        <v>-19.99926208764067</v>
+        <v>-18.30052848309317</v>
       </c>
       <c r="E5">
-        <v>-19.99931136920377</v>
+        <v>-18.30059379107428</v>
       </c>
       <c r="F5">
-        <v>-19.99931159496986</v>
+        <v>-18.300594124312</v>
       </c>
       <c r="G5">
-        <v>-19.999311595784</v>
+        <v>-18.30059412565044</v>
       </c>
       <c r="H5">
-        <v>-19.99931159578638</v>
+        <v>-18.30059412565484</v>
       </c>
       <c r="I5">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="J5">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="K5">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="L5">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="M5">
-        <v>-19.99931159578638</v>
+        <v>-18.30059412565484</v>
       </c>
       <c r="N5">
-        <v>-19.999311595784</v>
+        <v>-18.30059412565044</v>
       </c>
       <c r="O5">
-        <v>-19.99931159496986</v>
+        <v>-18.300594124312</v>
       </c>
       <c r="P5">
-        <v>-19.99931136920377</v>
+        <v>-18.30059379107428</v>
       </c>
       <c r="Q5">
-        <v>-19.99926208764067</v>
+        <v>-18.30052848309317</v>
       </c>
       <c r="R5">
-        <v>-19.99131887942361</v>
+        <v>-18.29107733041518</v>
       </c>
       <c r="S5">
-        <v>-19.14996064925916</v>
+        <v>-17.39210396085891</v>
       </c>
       <c r="T5">
         <v>25</v>
@@ -752,58 +752,58 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>-19.15060240767476</v>
+        <v>-17.39213820398172</v>
       </c>
       <c r="C6">
-        <v>-19.99197231420836</v>
+        <v>-18.29111226628224</v>
       </c>
       <c r="D6">
-        <v>-19.99991562755908</v>
+        <v>-18.30056342590031</v>
       </c>
       <c r="E6">
-        <v>-19.99996490974373</v>
+        <v>-18.30062873392707</v>
       </c>
       <c r="F6">
-        <v>-19.99996513551253</v>
+        <v>-18.30062906716501</v>
       </c>
       <c r="G6">
-        <v>-19.99996513632665</v>
+        <v>-18.30062906850346</v>
       </c>
       <c r="H6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850787</v>
       </c>
       <c r="I6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="J6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="K6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="L6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="M6">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850787</v>
       </c>
       <c r="N6">
-        <v>-19.99996513632665</v>
+        <v>-18.30062906850346</v>
       </c>
       <c r="O6">
-        <v>-19.99996513551253</v>
+        <v>-18.30062906716501</v>
       </c>
       <c r="P6">
-        <v>-19.99996490974373</v>
+        <v>-18.30062873392707</v>
       </c>
       <c r="Q6">
-        <v>-19.99991562755908</v>
+        <v>-18.30056342590031</v>
       </c>
       <c r="R6">
-        <v>-19.99197231420836</v>
+        <v>-18.29111226628224</v>
       </c>
       <c r="S6">
-        <v>-19.15060240767476</v>
+        <v>-17.39213820398172</v>
       </c>
       <c r="T6">
         <v>25</v>
@@ -814,58 +814,58 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>-19.15060946884892</v>
+        <v>-17.39213834556964</v>
       </c>
       <c r="C7">
-        <v>-19.99197950177383</v>
+        <v>-18.29111241068798</v>
       </c>
       <c r="D7">
-        <v>-19.9999228162437</v>
+        <v>-18.30056357033381</v>
       </c>
       <c r="E7">
-        <v>-19.99997209843486</v>
+        <v>-18.30062887836075</v>
       </c>
       <c r="F7">
-        <v>-19.99997232420366</v>
+        <v>-18.3006292115987</v>
       </c>
       <c r="G7">
-        <v>-19.9999723250178</v>
+        <v>-18.30062921293716</v>
       </c>
       <c r="H7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294155</v>
       </c>
       <c r="I7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="J7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="K7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="L7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="M7">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294155</v>
       </c>
       <c r="N7">
-        <v>-19.9999723250178</v>
+        <v>-18.30062921293716</v>
       </c>
       <c r="O7">
-        <v>-19.99997232420366</v>
+        <v>-18.3006292115987</v>
       </c>
       <c r="P7">
-        <v>-19.99997209843486</v>
+        <v>-18.30062887836075</v>
       </c>
       <c r="Q7">
-        <v>-19.9999228162437</v>
+        <v>-18.30056357033381</v>
       </c>
       <c r="R7">
-        <v>-19.99197950177383</v>
+        <v>-18.29111241068798</v>
       </c>
       <c r="S7">
-        <v>-19.15060946884892</v>
+        <v>-17.39213834556964</v>
       </c>
       <c r="T7">
         <v>25</v>
@@ -876,58 +876,58 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>-19.1506095300339</v>
+        <v>-17.39213834603044</v>
       </c>
       <c r="C8">
-        <v>-19.99197956403593</v>
+        <v>-18.2911124111578</v>
       </c>
       <c r="D8">
-        <v>-19.99992287851519</v>
+        <v>-18.30056357080371</v>
       </c>
       <c r="E8">
-        <v>-19.9999721607064</v>
+        <v>-18.30062887883066</v>
       </c>
       <c r="F8">
-        <v>-19.99997238647521</v>
+        <v>-18.30062921206859</v>
       </c>
       <c r="G8">
-        <v>-19.99997238728936</v>
+        <v>-18.30062921340706</v>
       </c>
       <c r="H8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341145</v>
       </c>
       <c r="I8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="J8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="K8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="L8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="M8">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341145</v>
       </c>
       <c r="N8">
-        <v>-19.99997238728936</v>
+        <v>-18.30062921340706</v>
       </c>
       <c r="O8">
-        <v>-19.99997238647521</v>
+        <v>-18.30062921206859</v>
       </c>
       <c r="P8">
-        <v>-19.9999721607064</v>
+        <v>-18.30062887883066</v>
       </c>
       <c r="Q8">
-        <v>-19.99992287851519</v>
+        <v>-18.30056357080371</v>
       </c>
       <c r="R8">
-        <v>-19.99197956403593</v>
+        <v>-18.2911124111578</v>
       </c>
       <c r="S8">
-        <v>-19.1506095300339</v>
+        <v>-17.39213834603044</v>
       </c>
       <c r="T8">
         <v>25</v>
@@ -938,58 +938,58 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>-19.15060953046856</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C9">
-        <v>-19.99197956447812</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D9">
-        <v>-19.99992287895742</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E9">
-        <v>-19.99997216114863</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F9">
-        <v>-19.99997238691746</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G9">
-        <v>-19.99997238773159</v>
+        <v>-18.3006292134083</v>
       </c>
       <c r="H9">
-        <v>-19.99997238773398</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I9">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J9">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K9">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L9">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M9">
-        <v>-19.99997238773398</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N9">
-        <v>-19.99997238773159</v>
+        <v>-18.3006292134083</v>
       </c>
       <c r="O9">
-        <v>-19.99997238691746</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P9">
-        <v>-19.99997216114863</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q9">
-        <v>-19.99992287895742</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R9">
-        <v>-19.99197956447812</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S9">
-        <v>-19.15060953046856</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T9">
         <v>25</v>
@@ -1000,58 +1000,58 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>-19.15060953047115</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C10">
-        <v>-19.99197956448078</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D10">
-        <v>-19.99992287896007</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E10">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F10">
-        <v>-19.99997238692011</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G10">
-        <v>-19.99997238773423</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="H10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M10">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N10">
-        <v>-19.99997238773423</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="O10">
-        <v>-19.99997238692011</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P10">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q10">
-        <v>-19.99992287896007</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R10">
-        <v>-19.99197956448078</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S10">
-        <v>-19.15060953047115</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T10">
         <v>25</v>
@@ -1062,58 +1062,58 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>-19.15060953047118</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C11">
-        <v>-19.99197956448079</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D11">
-        <v>-19.99992287896008</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E11">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F11">
-        <v>-19.99997238692012</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G11">
-        <v>-19.99997238773424</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="H11">
-        <v>-19.99997238773665</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I11">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J11">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K11">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L11">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M11">
-        <v>-19.99997238773665</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N11">
-        <v>-19.99997238773424</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="O11">
-        <v>-19.99997238692012</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P11">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q11">
-        <v>-19.99992287896008</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R11">
-        <v>-19.99197956448079</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S11">
-        <v>-19.15060953047118</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T11">
         <v>25</v>
@@ -1124,58 +1124,58 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>-19.15060953047118</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C12">
-        <v>-19.99197956448079</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D12">
-        <v>-19.99992287896008</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E12">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F12">
-        <v>-19.99997238692012</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G12">
-        <v>-19.99997238773424</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="H12">
-        <v>-19.99997238773665</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I12">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J12">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K12">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L12">
-        <v>-19.99997238773666</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M12">
-        <v>-19.99997238773665</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N12">
-        <v>-19.99997238773424</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="O12">
-        <v>-19.99997238692012</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P12">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q12">
-        <v>-19.99992287896008</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R12">
-        <v>-19.99197956448079</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S12">
-        <v>-19.15060953047118</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T12">
         <v>25</v>
@@ -1186,58 +1186,58 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>-19.15060953047115</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C13">
-        <v>-19.99197956448078</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D13">
-        <v>-19.99992287896007</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E13">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F13">
-        <v>-19.99997238692011</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G13">
-        <v>-19.99997238773423</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="H13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M13">
-        <v>-19.99997238773664</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N13">
-        <v>-19.99997238773423</v>
+        <v>-18.30062921340831</v>
       </c>
       <c r="O13">
-        <v>-19.99997238692011</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P13">
-        <v>-19.99997216115128</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q13">
-        <v>-19.99992287896007</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R13">
-        <v>-19.99197956448078</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S13">
-        <v>-19.15060953047115</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T13">
         <v>25</v>
@@ -1248,58 +1248,58 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>-19.15060953046856</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="C14">
-        <v>-19.99197956447812</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="D14">
-        <v>-19.99992287895742</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="E14">
-        <v>-19.99997216114863</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="F14">
-        <v>-19.99997238691746</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="G14">
-        <v>-19.99997238773159</v>
+        <v>-18.3006292134083</v>
       </c>
       <c r="H14">
-        <v>-19.99997238773398</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="I14">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="J14">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="K14">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="L14">
-        <v>-19.99997238773399</v>
+        <v>-18.30062921341272</v>
       </c>
       <c r="M14">
-        <v>-19.99997238773398</v>
+        <v>-18.30062921341271</v>
       </c>
       <c r="N14">
-        <v>-19.99997238773159</v>
+        <v>-18.3006292134083</v>
       </c>
       <c r="O14">
-        <v>-19.99997238691746</v>
+        <v>-18.30062921206985</v>
       </c>
       <c r="P14">
-        <v>-19.99997216114863</v>
+        <v>-18.30062887883191</v>
       </c>
       <c r="Q14">
-        <v>-19.99992287895742</v>
+        <v>-18.30056357080497</v>
       </c>
       <c r="R14">
-        <v>-19.99197956447812</v>
+        <v>-18.29111241115905</v>
       </c>
       <c r="S14">
-        <v>-19.15060953046856</v>
+        <v>-17.39213834603166</v>
       </c>
       <c r="T14">
         <v>25</v>
@@ -1310,58 +1310,58 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>-19.1506095300339</v>
+        <v>-17.39213834603044</v>
       </c>
       <c r="C15">
-        <v>-19.99197956403593</v>
+        <v>-18.2911124111578</v>
       </c>
       <c r="D15">
-        <v>-19.99992287851519</v>
+        <v>-18.30056357080371</v>
       </c>
       <c r="E15">
-        <v>-19.9999721607064</v>
+        <v>-18.30062887883066</v>
       </c>
       <c r="F15">
-        <v>-19.99997238647521</v>
+        <v>-18.30062921206859</v>
       </c>
       <c r="G15">
-        <v>-19.99997238728936</v>
+        <v>-18.30062921340706</v>
       </c>
       <c r="H15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341145</v>
       </c>
       <c r="I15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="J15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="K15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="L15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341147</v>
       </c>
       <c r="M15">
-        <v>-19.99997238729176</v>
+        <v>-18.30062921341145</v>
       </c>
       <c r="N15">
-        <v>-19.99997238728936</v>
+        <v>-18.30062921340706</v>
       </c>
       <c r="O15">
-        <v>-19.99997238647521</v>
+        <v>-18.30062921206859</v>
       </c>
       <c r="P15">
-        <v>-19.9999721607064</v>
+        <v>-18.30062887883066</v>
       </c>
       <c r="Q15">
-        <v>-19.99992287851519</v>
+        <v>-18.30056357080371</v>
       </c>
       <c r="R15">
-        <v>-19.99197956403593</v>
+        <v>-18.2911124111578</v>
       </c>
       <c r="S15">
-        <v>-19.1506095300339</v>
+        <v>-17.39213834603044</v>
       </c>
       <c r="T15">
         <v>25</v>
@@ -1372,58 +1372,58 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>-19.15060946884892</v>
+        <v>-17.39213834556964</v>
       </c>
       <c r="C16">
-        <v>-19.99197950177383</v>
+        <v>-18.29111241068798</v>
       </c>
       <c r="D16">
-        <v>-19.9999228162437</v>
+        <v>-18.30056357033381</v>
       </c>
       <c r="E16">
-        <v>-19.99997209843486</v>
+        <v>-18.30062887836075</v>
       </c>
       <c r="F16">
-        <v>-19.99997232420366</v>
+        <v>-18.3006292115987</v>
       </c>
       <c r="G16">
-        <v>-19.9999723250178</v>
+        <v>-18.30062921293716</v>
       </c>
       <c r="H16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294155</v>
       </c>
       <c r="I16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="J16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="K16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="L16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294156</v>
       </c>
       <c r="M16">
-        <v>-19.9999723250202</v>
+        <v>-18.30062921294155</v>
       </c>
       <c r="N16">
-        <v>-19.9999723250178</v>
+        <v>-18.30062921293716</v>
       </c>
       <c r="O16">
-        <v>-19.99997232420366</v>
+        <v>-18.3006292115987</v>
       </c>
       <c r="P16">
-        <v>-19.99997209843486</v>
+        <v>-18.30062887836075</v>
       </c>
       <c r="Q16">
-        <v>-19.9999228162437</v>
+        <v>-18.30056357033381</v>
       </c>
       <c r="R16">
-        <v>-19.99197950177383</v>
+        <v>-18.29111241068798</v>
       </c>
       <c r="S16">
-        <v>-19.15060946884892</v>
+        <v>-17.39213834556964</v>
       </c>
       <c r="T16">
         <v>25</v>
@@ -1434,58 +1434,58 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-19.15060240767476</v>
+        <v>-17.39213820398172</v>
       </c>
       <c r="C17">
-        <v>-19.99197231420836</v>
+        <v>-18.29111226628224</v>
       </c>
       <c r="D17">
-        <v>-19.99991562755908</v>
+        <v>-18.30056342590031</v>
       </c>
       <c r="E17">
-        <v>-19.99996490974373</v>
+        <v>-18.30062873392707</v>
       </c>
       <c r="F17">
-        <v>-19.99996513551253</v>
+        <v>-18.30062906716501</v>
       </c>
       <c r="G17">
-        <v>-19.99996513632665</v>
+        <v>-18.30062906850346</v>
       </c>
       <c r="H17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850787</v>
       </c>
       <c r="I17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="J17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="K17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="L17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850788</v>
       </c>
       <c r="M17">
-        <v>-19.99996513632908</v>
+        <v>-18.30062906850787</v>
       </c>
       <c r="N17">
-        <v>-19.99996513632665</v>
+        <v>-18.30062906850346</v>
       </c>
       <c r="O17">
-        <v>-19.99996513551253</v>
+        <v>-18.30062906716501</v>
       </c>
       <c r="P17">
-        <v>-19.99996490974373</v>
+        <v>-18.30062873392707</v>
       </c>
       <c r="Q17">
-        <v>-19.99991562755908</v>
+        <v>-18.30056342590031</v>
       </c>
       <c r="R17">
-        <v>-19.99197231420836</v>
+        <v>-18.29111226628224</v>
       </c>
       <c r="S17">
-        <v>-19.15060240767476</v>
+        <v>-17.39213820398172</v>
       </c>
       <c r="T17">
         <v>25</v>
@@ -1496,58 +1496,58 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-19.14996064925916</v>
+        <v>-17.39210396085891</v>
       </c>
       <c r="C18">
-        <v>-19.99131887942361</v>
+        <v>-18.29107733041518</v>
       </c>
       <c r="D18">
-        <v>-19.99926208764067</v>
+        <v>-18.30052848309317</v>
       </c>
       <c r="E18">
-        <v>-19.99931136920377</v>
+        <v>-18.30059379107428</v>
       </c>
       <c r="F18">
-        <v>-19.99931159496986</v>
+        <v>-18.300594124312</v>
       </c>
       <c r="G18">
-        <v>-19.999311595784</v>
+        <v>-18.30059412565044</v>
       </c>
       <c r="H18">
-        <v>-19.99931159578638</v>
+        <v>-18.30059412565484</v>
       </c>
       <c r="I18">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="J18">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="K18">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="L18">
-        <v>-19.99931159578639</v>
+        <v>-18.30059412565486</v>
       </c>
       <c r="M18">
-        <v>-19.99931159578638</v>
+        <v>-18.30059412565484</v>
       </c>
       <c r="N18">
-        <v>-19.999311595784</v>
+        <v>-18.30059412565044</v>
       </c>
       <c r="O18">
-        <v>-19.99931159496986</v>
+        <v>-18.300594124312</v>
       </c>
       <c r="P18">
-        <v>-19.99931136920377</v>
+        <v>-18.30059379107428</v>
       </c>
       <c r="Q18">
-        <v>-19.99926208764067</v>
+        <v>-18.30052848309317</v>
       </c>
       <c r="R18">
-        <v>-19.99131887942361</v>
+        <v>-18.29107733041518</v>
       </c>
       <c r="S18">
-        <v>-19.14996064925916</v>
+        <v>-17.39210396085891</v>
       </c>
       <c r="T18">
         <v>25</v>
@@ -1558,58 +1558,58 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>-19.10685189475098</v>
+        <v>-17.38598939368921</v>
       </c>
       <c r="C19">
-        <v>-19.94741310354054</v>
+        <v>-18.28483705727696</v>
       </c>
       <c r="D19">
-        <v>-19.95534901663675</v>
+        <v>-18.29428692967978</v>
       </c>
       <c r="E19">
-        <v>-19.955398254345</v>
+        <v>-18.29435222909563</v>
       </c>
       <c r="F19">
-        <v>-19.95539847991654</v>
+        <v>-18.29435256229106</v>
       </c>
       <c r="G19">
-        <v>-19.95539848072998</v>
+        <v>-18.29435256362935</v>
       </c>
       <c r="H19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363374</v>
       </c>
       <c r="I19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="J19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="K19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="L19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363375</v>
       </c>
       <c r="M19">
-        <v>-19.95539848073239</v>
+        <v>-18.29435256363374</v>
       </c>
       <c r="N19">
-        <v>-19.95539848072998</v>
+        <v>-18.29435256362935</v>
       </c>
       <c r="O19">
-        <v>-19.95539847991654</v>
+        <v>-18.29435256229106</v>
       </c>
       <c r="P19">
-        <v>-19.955398254345</v>
+        <v>-18.29435222909563</v>
       </c>
       <c r="Q19">
-        <v>-19.95534901663675</v>
+        <v>-18.29428692967978</v>
       </c>
       <c r="R19">
-        <v>-19.94741310354054</v>
+        <v>-18.28483705727696</v>
       </c>
       <c r="S19">
-        <v>-19.10685189475098</v>
+        <v>-17.38598939368921</v>
       </c>
       <c r="T19">
         <v>25</v>
@@ -1620,58 +1620,58 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-17.1993870361087</v>
+        <v>-16.66860920257351</v>
       </c>
       <c r="C20">
-        <v>-18.00412298976559</v>
+        <v>-17.55247357876735</v>
       </c>
       <c r="D20">
-        <v>-18.01172567872177</v>
+        <v>-17.56176836114312</v>
       </c>
       <c r="E20">
-        <v>-18.01177288016638</v>
+        <v>-17.56183260573752</v>
       </c>
       <c r="F20">
-        <v>-18.01177309655257</v>
+        <v>-17.56183293363681</v>
       </c>
       <c r="G20">
-        <v>-18.01177309733339</v>
+        <v>-17.56183293495418</v>
       </c>
       <c r="H20">
-        <v>-18.01177309733569</v>
+        <v>-17.56183293495852</v>
       </c>
       <c r="I20">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="J20">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="K20">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="L20">
-        <v>-18.0117730973357</v>
+        <v>-17.56183293495853</v>
       </c>
       <c r="M20">
-        <v>-18.01177309733569</v>
+        <v>-17.56183293495852</v>
       </c>
       <c r="N20">
-        <v>-18.01177309733339</v>
+        <v>-17.56183293495418</v>
       </c>
       <c r="O20">
-        <v>-18.01177309655257</v>
+        <v>-17.56183293363681</v>
       </c>
       <c r="P20">
-        <v>-18.01177288016638</v>
+        <v>-17.56183260573752</v>
       </c>
       <c r="Q20">
-        <v>-18.01172567872177</v>
+        <v>-17.56176836114312</v>
       </c>
       <c r="R20">
-        <v>-18.00412298976559</v>
+        <v>-17.55247357876735</v>
       </c>
       <c r="S20">
-        <v>-17.1993870361087</v>
+        <v>-16.66860920257351</v>
       </c>
       <c r="T20">
         <v>25</v>
